--- a/conejo/two_fictitious/output_test_a1.xlsx
+++ b/conejo/two_fictitious/output_test_a1.xlsx
@@ -521,7 +521,7 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>56.406191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +565,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -708,7 +708,7 @@
         <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>192.64417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26">
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>-22.074549</v>
+        <v>24.990052</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6763667</v>
+        <v>0.67236251</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-40.858724</v>
+        <v>-91.732021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.60386775</v>
+        <v>-2.555392</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-45.066727</v>
+        <v>-41.25803</v>
       </c>
       <c r="D4" t="n">
-        <v>5.9183795</v>
+        <v>-2.5430587</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-41.168359</v>
+        <v>-50.509948</v>
       </c>
       <c r="D5" t="n">
-        <v>5.741177</v>
+        <v>-2.1918025</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>-21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>14.310597</v>
+        <v>12.534563</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>-74.737342</v>
+        <v>2.8699097</v>
       </c>
       <c r="D7" t="n">
-        <v>11.515112</v>
+        <v>-0.75890982</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-146.12138</v>
+        <v>-274.60193</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.8879122</v>
+        <v>-0.48161142</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-115.16836</v>
+        <v>-124.50995</v>
       </c>
       <c r="D9" t="n">
-        <v>4.7014363</v>
+        <v>-1.7948619</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-116.06673</v>
+        <v>-112.25803</v>
       </c>
       <c r="D10" t="n">
-        <v>6.1272635</v>
+        <v>-2.6328137</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>-157.5</v>
       </c>
       <c r="D11" t="n">
-        <v>4.5465958</v>
+        <v>3.982335</v>
       </c>
       <c r="E11" t="n">
-        <v>8.487916200000001</v>
+        <v>22.365133</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1064,16 +1064,16 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>157.5</v>
+        <v>-109.8891</v>
       </c>
       <c r="D12" t="n">
-        <v>-19.360015</v>
+        <v>0.099200339</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-75.94958699999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1084,13 +1084,13 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-17.266336</v>
+        <v>-157.5</v>
       </c>
       <c r="D13" t="n">
-        <v>-26.146959</v>
+        <v>1.3451338</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.56036831</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>3.7663359</v>
+        <v>-123.3891</v>
       </c>
       <c r="D14" t="n">
-        <v>-26.220296</v>
+        <v>-1.076805</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-156.33469</v>
+        <v>-195.26745</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.1813188</v>
+        <v>-0.63646691</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-225.83735</v>
+        <v>-258.87259</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.20423165</v>
+        <v>-0.66413488</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-197.64887</v>
+        <v>-262.27099</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.1079818</v>
+        <v>1.2251036</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-267.15152</v>
+        <v>-325.87614</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.13089468</v>
+        <v>1.1974356</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,13 +1204,13 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-450</v>
+        <v>-341.00632</v>
       </c>
       <c r="D19" t="n">
-        <v>8.400725899999999</v>
+        <v>0.092241832</v>
       </c>
       <c r="E19" t="n">
-        <v>0.60490723</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>96.016445</v>
+        <v>-116.53212</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.4952854</v>
+        <v>0.21360674</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-328.37035</v>
+        <v>-229.69731</v>
       </c>
       <c r="D21" t="n">
-        <v>6.8187315</v>
+        <v>0.11990981</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-164.61852</v>
+        <v>-355.05142</v>
       </c>
       <c r="D22" t="n">
-        <v>-14.166511</v>
+        <v>0.37351762</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.3703475</v>
+        <v>-269.13237</v>
       </c>
       <c r="D23" t="n">
-        <v>-20.985243</v>
+        <v>0.25360781</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-97.983555</v>
+        <v>-310.53212</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.933853</v>
+        <v>0.30006661</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>-229.5111</v>
+        <v>-113.5781</v>
       </c>
       <c r="D25" t="n">
-        <v>2.6755603</v>
+        <v>-0.10195156</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-39.305139</v>
+        <v>-161.51191</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.1565956</v>
+        <v>0.006460186</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-39.305139</v>
+        <v>-161.51191</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.1565956</v>
+        <v>0.006460186</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>146.12138</v>
+        <v>274.60193</v>
       </c>
       <c r="D28" t="n">
-        <v>4.8829933</v>
+        <v>0.2981404</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-31.033898</v>
+        <v>-192.29401</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.6527414</v>
+        <v>0.057110836</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>-241.46076</v>
+        <v>-176.81621</v>
       </c>
       <c r="D30" t="n">
-        <v>3.0835822</v>
+        <v>-0.07148046399999999</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>70.800679</v>
+        <v>-68.68932100000001</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.1671038</v>
+        <v>0.02660047</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-101.83458</v>
+        <v>-123.60469</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.5366388</v>
+        <v>0.031136388</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>68.900339</v>
+        <v>-0.84466045</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.0123107</v>
+        <v>0.024700436</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>68.900339</v>
+        <v>-0.84466045</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.0123107</v>
+        <v>0.024700436</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-211.23038</v>
+        <v>-178.90811</v>
       </c>
       <c r="D35" t="n">
-        <v>2.6813758</v>
+        <v>-0.062156925</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-211.23038</v>
+        <v>-178.90811</v>
       </c>
       <c r="D36" t="n">
-        <v>2.6813758</v>
+        <v>-0.062156925</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-275.23038</v>
+        <v>-242.90811</v>
       </c>
       <c r="D37" t="n">
-        <v>1.4747567</v>
+        <v>-0.034186309</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-275.23038</v>
+        <v>-242.90811</v>
       </c>
       <c r="D38" t="n">
-        <v>1.4747567</v>
+        <v>-0.034186309</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-198.16542</v>
+        <v>-176.39531</v>
       </c>
       <c r="D39" t="n">
-        <v>1.6427756</v>
+        <v>-0.020164518</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>118.32363</v>
+        <v>104.18285</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>104.85521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0030904369</v>
+        <v>-0.34986073</v>
       </c>
     </row>
     <row r="4">
@@ -1674,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>118.9275</v>
+        <v>101.62745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.086211908</v>
+        <v>19.355457</v>
       </c>
     </row>
     <row r="5">
@@ -1685,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>125.74118</v>
+        <v>102.66341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.055374252</v>
+        <v>6.0649027</v>
       </c>
     </row>
     <row r="6">
@@ -1696,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>124.24201</v>
+        <v>101.63979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.038306718</v>
+        <v>3.5069326</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>134.3106</v>
+        <v>117.38977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.044370437</v>
+        <v>3.7781393</v>
       </c>
     </row>
     <row r="8">
@@ -1718,10 +1718,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>99.984578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24273489</v>
+        <v>-13.676798</v>
       </c>
     </row>
     <row r="9">
@@ -1729,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>156.58957</v>
+        <v>100.08378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14665989</v>
+        <v>-6.9735627</v>
       </c>
     </row>
     <row r="10">
@@ -1740,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>130.44261</v>
+        <v>100.86854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17514935</v>
+        <v>19.013937</v>
       </c>
     </row>
     <row r="11">
@@ -1751,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>130.36928</v>
+        <v>99.006973</v>
       </c>
       <c r="C11" t="n">
-        <v>0.14044544</v>
+        <v>13.385639</v>
       </c>
     </row>
     <row r="12">
@@ -1762,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129.26129</v>
+        <v>100.23208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30647048</v>
+        <v>35.416403</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130.23838</v>
+        <v>100.20441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.36485272</v>
+        <v>40.759235</v>
       </c>
     </row>
     <row r="14">
@@ -1784,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137.05711</v>
+        <v>100.32432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.52247048</v>
+        <v>51.784706</v>
       </c>
     </row>
     <row r="15">
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120.76601</v>
+        <v>100.44568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.26614358</v>
+        <v>40.310752</v>
       </c>
     </row>
     <row r="16">
@@ -1806,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106.1566</v>
+        <v>100.8477</v>
       </c>
       <c r="C16" t="n">
-        <v>0.28493699</v>
+        <v>56.701319</v>
       </c>
     </row>
     <row r="17">
@@ -1817,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>108.83216</v>
+        <v>100.74575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.32395388</v>
+        <v>58.632147</v>
       </c>
     </row>
     <row r="18">
@@ -1828,10 +1828,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>104.17941</v>
+        <v>100.80286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.33202269</v>
+        <v>63.631791</v>
       </c>
     </row>
     <row r="19">
@@ -1839,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>102.01231</v>
+        <v>100.82946</v>
       </c>
       <c r="C19" t="n">
-        <v>0.32211059</v>
+        <v>64.593442</v>
       </c>
     </row>
     <row r="20">
@@ -1850,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>111.91574</v>
+        <v>100.67427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.37948985</v>
+        <v>62.69892</v>
       </c>
     </row>
     <row r="21">
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>114.59711</v>
+        <v>100.61211</v>
       </c>
       <c r="C21" t="n">
-        <v>0.463982</v>
+        <v>69.855244</v>
       </c>
     </row>
     <row r="22">
@@ -1872,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>100.85416</v>
       </c>
       <c r="C22" t="n">
-        <v>0.30419651</v>
+        <v>64.615403</v>
       </c>
     </row>
     <row r="23">
@@ -1883,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>101.64278</v>
+        <v>100.834</v>
       </c>
       <c r="C23" t="n">
-        <v>0.43894899</v>
+        <v>76.61028399999999</v>
       </c>
     </row>
     <row r="24">
@@ -1894,10 +1894,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>116.07187</v>
+        <v>100.57793</v>
       </c>
       <c r="C24" t="n">
-        <v>0.52453269</v>
+        <v>75.19922200000001</v>
       </c>
     </row>
     <row r="25">
@@ -1905,10 +1905,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>111.03959</v>
+        <v>101.14584</v>
       </c>
       <c r="C25" t="n">
-        <v>0.20895387</v>
+        <v>42.422019</v>
       </c>
     </row>
   </sheetData>
